--- a/Dissertation/dataset/csv_files/raw text.xlsx
+++ b/Dissertation/dataset/csv_files/raw text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F1F9DA-EF18-4346-969D-41991AB7E0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BCB238-72ED-4530-A0C7-03FBCD021AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05C6BF51-8341-45B1-B3C3-6E352B1B5043}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>Index</t>
   </si>
@@ -104,6 +104,30 @@
   </si>
   <si>
     <t>[b'at']</t>
+  </si>
+  <si>
+    <t>[b'about']</t>
+  </si>
+  <si>
+    <t>[b'there']</t>
+  </si>
+  <si>
+    <t>[b'if']</t>
+  </si>
+  <si>
+    <t>[b'but']</t>
+  </si>
+  <si>
+    <t>[b'people']</t>
+  </si>
+  <si>
+    <t>[b'around']</t>
+  </si>
+  <si>
+    <t>[b'think']</t>
+  </si>
+  <si>
+    <t>[b'this']</t>
   </si>
 </sst>
 </file>
@@ -457,12 +481,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A900E28A-5375-4C30-9B8F-FBEE66CF7C5A}">
   <dimension ref="A1:C4019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1817,6 +1842,12 @@
       <c r="A190">
         <v>188</v>
       </c>
+      <c r="B190" t="s">
+        <v>20</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
@@ -1828,402 +1859,576 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>23</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>20</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>22</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>24</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>20</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>15</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>15</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>25</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>20</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>15</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>17</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>26</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>27</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>28</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>15</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>11</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>29</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>21</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>10</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>15</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>20</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>30</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>

--- a/Dissertation/dataset/csv_files/raw text.xlsx
+++ b/Dissertation/dataset/csv_files/raw text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BCB238-72ED-4530-A0C7-03FBCD021AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6834A087-FF22-4075-95C1-EC79F1AB71FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05C6BF51-8341-45B1-B3C3-6E352B1B5043}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
   <si>
     <t>Index</t>
   </si>
@@ -128,6 +128,21 @@
   </si>
   <si>
     <t>[b'this']</t>
+  </si>
+  <si>
+    <t>[b'i]</t>
+  </si>
+  <si>
+    <t>[b'me']</t>
+  </si>
+  <si>
+    <t>[b'an']</t>
+  </si>
+  <si>
+    <t>[b'now']</t>
+  </si>
+  <si>
+    <t>[b'on']</t>
   </si>
 </sst>
 </file>
@@ -481,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A900E28A-5375-4C30-9B8F-FBEE66CF7C5A}">
   <dimension ref="A1:C4019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="C259" sqref="C259"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="C330" sqref="C330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,322 +2448,436 @@
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>14</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>20</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>15</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>14</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>11</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>31</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>11</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>25</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>32</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>18</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>33</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>14</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>14</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>11</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>34</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>35</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>

--- a/Dissertation/dataset/csv_files/raw text.xlsx
+++ b/Dissertation/dataset/csv_files/raw text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6834A087-FF22-4075-95C1-EC79F1AB71FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E230440C-9A77-4248-836B-534D761E816E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05C6BF51-8341-45B1-B3C3-6E352B1B5043}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="38">
   <si>
     <t>Index</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>[b'on']</t>
+  </si>
+  <si>
+    <t>[b'from']</t>
+  </si>
+  <si>
+    <t>[b'with']</t>
   </si>
 </sst>
 </file>
@@ -496,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A900E28A-5375-4C30-9B8F-FBEE66CF7C5A}">
   <dimension ref="A1:C4019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="C330" sqref="C330"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="C373" sqref="C373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,248 +2882,350 @@
       <c r="A335">
         <v>333</v>
       </c>
+      <c r="B335" t="s">
+        <v>11</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
+        <v>12</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
+        <v>22</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
+        <v>11</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
+        <v>20</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
+        <v>36</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
+        <v>15</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>22</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
+        <v>32</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>12</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>15</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>22</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>30</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>367</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>37</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>368</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>21</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>371</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>11</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>374</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>377</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>379</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>380</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>381</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>382</v>
       </c>

--- a/Dissertation/dataset/csv_files/raw text.xlsx
+++ b/Dissertation/dataset/csv_files/raw text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E230440C-9A77-4248-836B-534D761E816E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2051F1-6652-4398-B12F-865A93552B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05C6BF51-8341-45B1-B3C3-6E352B1B5043}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="43">
   <si>
     <t>Index</t>
   </si>
@@ -149,6 +149,21 @@
   </si>
   <si>
     <t>[b'with']</t>
+  </si>
+  <si>
+    <t>[b'i']</t>
+  </si>
+  <si>
+    <t>[b'time']</t>
+  </si>
+  <si>
+    <t>[b'most']</t>
+  </si>
+  <si>
+    <t>[b'my']</t>
+  </si>
+  <si>
+    <t>[b'have']</t>
   </si>
 </sst>
 </file>
@@ -502,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A900E28A-5375-4C30-9B8F-FBEE66CF7C5A}">
   <dimension ref="A1:C4019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="C373" sqref="C373"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="C452" sqref="C452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,6 +3209,12 @@
       <c r="A377">
         <v>375</v>
       </c>
+      <c r="B377" t="s">
+        <v>22</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
@@ -3219,413 +3240,614 @@
       <c r="A382">
         <v>380</v>
       </c>
+      <c r="B382" t="s">
+        <v>19</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>381</v>
       </c>
+      <c r="B383" t="s">
+        <v>33</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>382</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>383</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>22</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>386</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>11</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>387</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>388</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>38</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>389</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>390</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>14</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>391</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>392</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>24</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>393</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B395" t="s">
+        <v>11</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>394</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>18</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>395</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B397" t="s">
+        <v>21</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>396</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>397</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>39</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>398</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>399</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>401</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B403" t="s">
+        <v>6</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>402</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B404" t="s">
+        <v>38</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>403</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>404</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B406" t="s">
+        <v>39</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>405</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
+        <v>11</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>406</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>407</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B409" t="s">
+        <v>15</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>408</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B410" t="s">
+        <v>40</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>409</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>410</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>411</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
+        <v>20</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>412</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
+        <v>41</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>413</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>414</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>415</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B417" t="s">
+        <v>19</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>416</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B418" t="s">
+        <v>14</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>417</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B419" t="s">
+        <v>42</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>418</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>419</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>420</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>421</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>422</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>423</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B425" t="s">
+        <v>12</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>424</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>425</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>426</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>427</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>428</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>429</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B431" t="s">
+        <v>15</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>430</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>431</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B433" t="s">
+        <v>11</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>432</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>433</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B435" t="s">
+        <v>15</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>434</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>435</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B437" t="s">
+        <v>11</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>436</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>438</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B440" t="s">
+        <v>20</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>439</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>440</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>441</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>442</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>443</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B445" t="s">
+        <v>11</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>444</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B446" t="s">
+        <v>38</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>445</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>446</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B448" t="s">
+        <v>37</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>447</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B449" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>448</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>449</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B451" t="s">
+        <v>35</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>450</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B452" t="s">
+        <v>15</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>451</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>452</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>453</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>454</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>455</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>456</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>457</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>458</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>459</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>460</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>461</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>462</v>
       </c>

--- a/Dissertation/dataset/csv_files/raw text.xlsx
+++ b/Dissertation/dataset/csv_files/raw text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2051F1-6652-4398-B12F-865A93552B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA436CF3-7559-4F21-A5EE-AD7C939904D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05C6BF51-8341-45B1-B3C3-6E352B1B5043}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="46">
   <si>
     <t>Index</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>[b'have']</t>
+  </si>
+  <si>
+    <t>[b'one']</t>
+  </si>
+  <si>
+    <t>[b'she']</t>
+  </si>
+  <si>
+    <t>[b'said']</t>
   </si>
 </sst>
 </file>
@@ -517,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A900E28A-5375-4C30-9B8F-FBEE66CF7C5A}">
   <dimension ref="A1:C4019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="C452" sqref="C452"/>
+    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="C474" sqref="C474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3811,21 +3820,45 @@
       <c r="A456">
         <v>454</v>
       </c>
+      <c r="B456" t="s">
+        <v>7</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>455</v>
       </c>
+      <c r="B457" t="s">
+        <v>43</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>456</v>
       </c>
+      <c r="B458" t="s">
+        <v>20</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>457</v>
       </c>
+      <c r="B459" t="s">
+        <v>15</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460">
@@ -3852,82 +3885,94 @@
         <v>462</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>463</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>464</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>465</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>466</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>467</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>468</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B470" t="s">
+        <v>44</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>469</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B471" t="s">
+        <v>45</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>470</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>471</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>472</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>473</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>474</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>475</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>476</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>477</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>478</v>
       </c>

--- a/Dissertation/dataset/csv_files/raw text.xlsx
+++ b/Dissertation/dataset/csv_files/raw text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA436CF3-7559-4F21-A5EE-AD7C939904D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605C2CFF-64E5-4FD5-9140-9D5663009838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05C6BF51-8341-45B1-B3C3-6E352B1B5043}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="47">
   <si>
     <t>Index</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>[b'said']</t>
+  </si>
+  <si>
+    <t>[b'them']</t>
   </si>
 </sst>
 </file>
@@ -526,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A900E28A-5375-4C30-9B8F-FBEE66CF7C5A}">
   <dimension ref="A1:C4019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
-      <selection activeCell="C474" sqref="C474"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="C515" sqref="C515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3946,6 +3949,12 @@
       <c r="A474">
         <v>472</v>
       </c>
+      <c r="B474" t="s">
+        <v>13</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475">
@@ -3956,263 +3965,365 @@
       <c r="A476">
         <v>474</v>
       </c>
+      <c r="B476" t="s">
+        <v>37</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>475</v>
       </c>
+      <c r="B477" t="s">
+        <v>27</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>476</v>
       </c>
+      <c r="B478" t="s">
+        <v>10</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>477</v>
       </c>
+      <c r="B479" t="s">
+        <v>15</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>478</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>479</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>480</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>481</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>482</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>483</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>484</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B486" t="s">
+        <v>11</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>485</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B487" t="s">
+        <v>34</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>486</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>487</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>488</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B490" t="s">
+        <v>35</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>489</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>490</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>491</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>492</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>493</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B495" t="s">
+        <v>11</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>494</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>495</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>496</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B498" t="s">
+        <v>12</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>497</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>498</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B500" t="s">
+        <v>22</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>499</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>500</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>501</v>
       </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B503" t="s">
+        <v>14</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>502</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>503</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>504</v>
       </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B506" t="s">
+        <v>22</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>505</v>
       </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B507" t="s">
+        <v>41</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>506</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>507</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>508</v>
       </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B510" t="s">
+        <v>38</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>509</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>510</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>511</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B513" t="s">
+        <v>12</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>512</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B514" t="s">
+        <v>46</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>513</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B515" t="s">
+        <v>11</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>514</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>515</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>516</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>517</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>518</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>519</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>520</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>522</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>523</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>524</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>525</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>526</v>
       </c>

--- a/Dissertation/dataset/csv_files/raw text.xlsx
+++ b/Dissertation/dataset/csv_files/raw text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605C2CFF-64E5-4FD5-9140-9D5663009838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CA7D25-BF66-4A49-A7E8-2BCE42E8E7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05C6BF51-8341-45B1-B3C3-6E352B1B5043}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="54">
   <si>
     <t>Index</t>
   </si>
@@ -176,6 +176,27 @@
   </si>
   <si>
     <t>[b'them']</t>
+  </si>
+  <si>
+    <t>[b'it']</t>
+  </si>
+  <si>
+    <t>[b'or']</t>
+  </si>
+  <si>
+    <t>[b'they']</t>
+  </si>
+  <si>
+    <t>[b'been']</t>
+  </si>
+  <si>
+    <t>[b'out']</t>
+  </si>
+  <si>
+    <t>[b'country']</t>
+  </si>
+  <si>
+    <t>[b'heard']</t>
   </si>
 </sst>
 </file>
@@ -529,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A900E28A-5375-4C30-9B8F-FBEE66CF7C5A}">
   <dimension ref="A1:C4019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="C515" sqref="C515"/>
+    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="C616" sqref="C616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4272,6 +4293,12 @@
       <c r="A517">
         <v>515</v>
       </c>
+      <c r="B517" t="s">
+        <v>15</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518">
@@ -4282,6 +4309,12 @@
       <c r="A519">
         <v>517</v>
       </c>
+      <c r="B519" t="s">
+        <v>37</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520">
@@ -4297,6 +4330,12 @@
       <c r="A522">
         <v>520</v>
       </c>
+      <c r="B522" t="s">
+        <v>47</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523">
@@ -4307,11 +4346,23 @@
       <c r="A524">
         <v>522</v>
       </c>
+      <c r="B524" t="s">
+        <v>32</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>523</v>
       </c>
+      <c r="B525" t="s">
+        <v>15</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526">
@@ -4322,488 +4373,734 @@
       <c r="A527">
         <v>525</v>
       </c>
+      <c r="B527" t="s">
+        <v>14</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>526</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>527</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B529" t="s">
+        <v>16</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>528</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B530" t="s">
+        <v>20</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>529</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B531" t="s">
+        <v>15</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>530</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>531</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>532</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B534" t="s">
+        <v>6</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>533</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>534</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>535</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B537" t="s">
+        <v>10</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>536</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B538" t="s">
+        <v>15</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>537</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>538</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>539</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>540</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>541</v>
       </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B543" t="s">
+        <v>48</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>542</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>543</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B545" t="s">
+        <v>20</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>544</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>545</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B547" t="s">
+        <v>5</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>546</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>547</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>548</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B550" t="s">
+        <v>7</v>
+      </c>
+      <c r="C550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>549</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B551" t="s">
+        <v>49</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>550</v>
       </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B552" t="s">
+        <v>4</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>551</v>
       </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B553" t="s">
+        <v>14</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>552</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>553</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>555</v>
       </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B557" t="s">
+        <v>50</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>556</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>557</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>558</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B560" t="s">
+        <v>51</v>
+      </c>
+      <c r="C560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>559</v>
       </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B561" t="s">
+        <v>20</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>560</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>561</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>562</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>563</v>
       </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B565" t="s">
+        <v>38</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>564</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>565</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>566</v>
       </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B568" t="s">
+        <v>14</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>567</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>568</v>
       </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B570" t="s">
+        <v>15</v>
+      </c>
+      <c r="C570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>569</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>570</v>
       </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B572" t="s">
+        <v>20</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>571</v>
       </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B573" t="s">
+        <v>15</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>572</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>573</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>574</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>575</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>576</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>577</v>
       </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B579" t="s">
+        <v>14</v>
+      </c>
+      <c r="C579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>578</v>
       </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B580" t="s">
+        <v>30</v>
+      </c>
+      <c r="C580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>579</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>580</v>
       </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B582" t="s">
+        <v>46</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>581</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>582</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>583</v>
       </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B585" t="s">
+        <v>10</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>584</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>585</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>586</v>
       </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B588" t="s">
+        <v>6</v>
+      </c>
+      <c r="C588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>587</v>
       </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B589" t="s">
+        <v>8</v>
+      </c>
+      <c r="C589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>588</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>589</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>590</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>591</v>
       </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B593" t="s">
+        <v>14</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>592</v>
       </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B594" t="s">
+        <v>15</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>593</v>
       </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B595" t="s">
+        <v>52</v>
+      </c>
+      <c r="C595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>594</v>
       </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B596" t="s">
+        <v>15</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>595</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>596</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>597</v>
       </c>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B599" t="s">
+        <v>20</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>598</v>
       </c>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B600" t="s">
+        <v>15</v>
+      </c>
+      <c r="C600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>599</v>
       </c>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B601" t="s">
+        <v>52</v>
+      </c>
+      <c r="C601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>600</v>
       </c>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B602" t="s">
+        <v>4</v>
+      </c>
+      <c r="C602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>601</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>602</v>
       </c>
-    </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B604" t="s">
+        <v>14</v>
+      </c>
+      <c r="C604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>603</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>604</v>
       </c>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B606" t="s">
+        <v>15</v>
+      </c>
+      <c r="C606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>605</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>606</v>
       </c>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B608" t="s">
+        <v>20</v>
+      </c>
+      <c r="C608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>607</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>608</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>609</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>610</v>
       </c>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B612" t="s">
+        <v>53</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>611</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>612</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>613</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>614</v>
       </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B616" t="s">
+        <v>6</v>
+      </c>
+      <c r="C616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>615</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>616</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>617</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>618</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>619</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>620</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>621</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>622</v>
       </c>

--- a/Dissertation/dataset/csv_files/raw text.xlsx
+++ b/Dissertation/dataset/csv_files/raw text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339FA4AD-2D05-4CC2-9797-7CBFCDE929C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA193E9-9AAC-430F-BE52-8C23CF108F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05C6BF51-8341-45B1-B3C3-6E352B1B5043}"/>
+    <workbookView xWindow="6030" yWindow="3195" windowWidth="21600" windowHeight="11385" xr2:uid="{05C6BF51-8341-45B1-B3C3-6E352B1B5043}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="54">
   <si>
     <t>Index</t>
   </si>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A900E28A-5375-4C30-9B8F-FBEE66CF7C5A}">
   <dimension ref="A1:C6649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A736" workbookViewId="0">
-      <selection activeCell="G747" sqref="G747"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C767" sqref="C767"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6045,82 +6045,124 @@
         <v>750</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>751</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>752</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>753</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>754</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>755</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>756</v>
       </c>
-    </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B758" t="s">
+        <v>35</v>
+      </c>
+      <c r="C758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>757</v>
       </c>
-    </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B759" t="s">
+        <v>15</v>
+      </c>
+      <c r="C759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>758</v>
       </c>
-    </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B760" t="s">
+        <v>14</v>
+      </c>
+      <c r="C760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>759</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>760</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>761</v>
       </c>
-    </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B763" t="s">
+        <v>8</v>
+      </c>
+      <c r="C763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>762</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>763</v>
       </c>
-    </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B765" t="s">
+        <v>12</v>
+      </c>
+      <c r="C765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>764</v>
       </c>
-    </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B766" t="s">
+        <v>11</v>
+      </c>
+      <c r="C766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>765</v>
       </c>
-    </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B767" t="s">
+        <v>11</v>
+      </c>
+      <c r="C767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>766</v>
       </c>

--- a/Dissertation/dataset/csv_files/raw text.xlsx
+++ b/Dissertation/dataset/csv_files/raw text.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA193E9-9AAC-430F-BE52-8C23CF108F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AACA12D-CAB5-406C-9A13-3BD3E5CB2ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="3195" windowWidth="21600" windowHeight="11385" xr2:uid="{05C6BF51-8341-45B1-B3C3-6E352B1B5043}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05C6BF51-8341-45B1-B3C3-6E352B1B5043}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,12 +212,60 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -232,8 +280,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A900E28A-5375-4C30-9B8F-FBEE66CF7C5A}">
-  <dimension ref="A1:C6649"/>
+  <dimension ref="A1:E6649"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C767" sqref="C767"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +616,7 @@
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,12 +627,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -586,8 +646,9 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -597,18 +658,21 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -618,18 +682,21 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -639,8 +706,9 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -650,23 +718,27 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -676,8 +748,9 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -687,13 +760,15 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -703,18 +778,21 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -724,28 +802,36 @@
       <c r="C21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -755,13 +841,15 @@
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -771,13 +859,15 @@
       <c r="C28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -787,18 +877,21 @@
       <c r="C30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -808,8 +901,9 @@
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -819,8 +913,9 @@
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -830,8 +925,9 @@
       <c r="C35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -841,18 +937,21 @@
       <c r="C36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -862,8 +961,9 @@
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -873,88 +973,108 @@
       <c r="C40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="3"/>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -964,13 +1084,15 @@
       <c r="C57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -980,43 +1102,54 @@
       <c r="C59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="4"/>
+      <c r="E62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1026,13 +1159,15 @@
       <c r="C67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1042,13 +1177,15 @@
       <c r="C69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1058,28 +1195,33 @@
       <c r="C71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1089,18 +1231,21 @@
       <c r="C76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1110,18 +1255,21 @@
       <c r="C79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1131,8 +1279,12 @@
       <c r="C82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="5"/>
+      <c r="E82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1142,13 +1294,15 @@
       <c r="C83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1158,13 +1312,15 @@
       <c r="C85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="5"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1174,13 +1330,15 @@
       <c r="C87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="5"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="5"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1190,8 +1348,9 @@
       <c r="C89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1201,13 +1360,15 @@
       <c r="C90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1217,8 +1378,9 @@
       <c r="C92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1228,13 +1390,15 @@
       <c r="C93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1244,8 +1408,9 @@
       <c r="C95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1255,13 +1420,15 @@
       <c r="C96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="5"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1271,8 +1438,9 @@
       <c r="C98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1282,28 +1450,36 @@
       <c r="C99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="5"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="6"/>
+      <c r="E102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -1313,13 +1489,15 @@
       <c r="C104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -1329,13 +1507,15 @@
       <c r="C106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -1345,8 +1525,9 @@
       <c r="C108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -1356,23 +1537,27 @@
       <c r="C109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="6"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -1382,8 +1567,9 @@
       <c r="C113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -1393,18 +1579,21 @@
       <c r="C114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -1414,18 +1603,21 @@
       <c r="C117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -1435,28 +1627,36 @@
       <c r="C120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="6"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="7"/>
+      <c r="E122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" s="7"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -1466,13 +1666,15 @@
       <c r="C125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -1482,13 +1684,15 @@
       <c r="C127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" s="7"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="7"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -1498,8 +1702,9 @@
       <c r="C129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="7"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -1509,18 +1714,21 @@
       <c r="C130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="7"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" s="7"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" s="7"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -1530,23 +1738,27 @@
       <c r="C133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="7"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" s="7"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -1556,8 +1768,9 @@
       <c r="C137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -1567,13 +1780,15 @@
       <c r="C138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" s="7"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -1583,68 +1798,84 @@
       <c r="C140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" s="7"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" s="7"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" s="8"/>
+      <c r="E142">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" s="8"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" s="8"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" s="8"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" s="8"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" s="8"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" s="8"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" s="8"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" s="8"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" s="8"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" s="8"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -1654,13 +1885,15 @@
       <c r="C153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" s="8"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" s="8"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -1670,13 +1903,15 @@
       <c r="C155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" s="8"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" s="8"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -1686,8 +1921,9 @@
       <c r="C157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" s="8"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -1697,28 +1933,32 @@
       <c r="C158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" s="8"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" s="8"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" s="8"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" s="8"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -1729,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -1740,12 +1980,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -1756,12 +1996,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -1772,22 +2012,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -1798,12 +2038,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -1814,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -1825,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>

--- a/Dissertation/dataset/csv_files/raw text.xlsx
+++ b/Dissertation/dataset/csv_files/raw text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AACA12D-CAB5-406C-9A13-3BD3E5CB2ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CBA332-E225-4669-A42A-D6B4B7A30EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05C6BF51-8341-45B1-B3C3-6E352B1B5043}"/>
   </bookViews>
@@ -212,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +267,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -280,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -290,6 +302,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A900E28A-5375-4C30-9B8F-FBEE66CF7C5A}">
   <dimension ref="A1:E6649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,18 +1961,22 @@
       </c>
       <c r="D160" s="8"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
       <c r="D161" s="8"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="9"/>
+      <c r="E162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -1968,8 +1986,9 @@
       <c r="C163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="9"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -1979,13 +1998,15 @@
       <c r="C164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="9"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="9"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -1995,13 +2016,15 @@
       <c r="C166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D166" s="9"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="9"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -2011,23 +2034,27 @@
       <c r="C168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="9"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D169" s="9"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="9"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="9"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -2037,13 +2064,15 @@
       <c r="C172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="9"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="9"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -2053,8 +2082,9 @@
       <c r="C174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="9"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -2064,13 +2094,15 @@
       <c r="C175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="9"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" s="9"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -2080,58 +2112,72 @@
       <c r="C177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" s="9"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" s="9"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" s="9"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" s="9"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" s="9"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" s="10"/>
+      <c r="E182">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" s="10"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" s="10"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" s="10"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" s="10"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" s="10"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -2141,13 +2187,15 @@
       <c r="C188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" s="10"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" s="10"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -2157,18 +2205,21 @@
       <c r="C190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" s="10"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" s="10"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" s="10"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -2178,18 +2229,21 @@
       <c r="C193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" s="10"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" s="10"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" s="10"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -2199,8 +2253,9 @@
       <c r="C196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" s="10"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -2210,13 +2265,15 @@
       <c r="C197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" s="10"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" s="10"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -2226,8 +2283,9 @@
       <c r="C199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" s="10"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -2237,43 +2295,45 @@
       <c r="C200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" s="10"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" s="10"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>

--- a/Dissertation/dataset/csv_files/raw text.xlsx
+++ b/Dissertation/dataset/csv_files/raw text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CBA332-E225-4669-A42A-D6B4B7A30EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20930077-832A-43DB-83EA-60CDD12D9ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05C6BF51-8341-45B1-B3C3-6E352B1B5043}"/>
   </bookViews>
@@ -212,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +279,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -292,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -304,6 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A900E28A-5375-4C30-9B8F-FBEE66CF7C5A}">
   <dimension ref="A1:E6649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="E182" sqref="E182"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="F209" sqref="F209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,7 +2226,7 @@
       </c>
       <c r="D192" s="10"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -2231,19 +2238,19 @@
       </c>
       <c r="D193" s="10"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
       <c r="D194" s="10"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
       <c r="D195" s="10"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -2255,7 +2262,7 @@
       </c>
       <c r="D196" s="10"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -2267,13 +2274,13 @@
       </c>
       <c r="D197" s="10"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
       <c r="D198" s="10"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -2285,7 +2292,7 @@
       </c>
       <c r="D199" s="10"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -2297,68 +2304,82 @@
       </c>
       <c r="D200" s="10"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
       <c r="D201" s="10"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D202" s="11"/>
+      <c r="E202">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D203" s="11"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D204" s="11"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D205" s="11"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D206" s="11"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D207" s="11"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" s="11"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" s="11"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" s="11"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" s="11"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" s="11"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -2368,38 +2389,45 @@
       <c r="C213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" s="11"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" s="11"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" s="11"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" s="11"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" s="11"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" s="11"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" s="11"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -2409,8 +2437,9 @@
       <c r="C220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" s="11"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -2420,8 +2449,9 @@
       <c r="C221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" s="11"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -2432,12 +2462,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>

--- a/Dissertation/dataset/csv_files/raw text.xlsx
+++ b/Dissertation/dataset/csv_files/raw text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20930077-832A-43DB-83EA-60CDD12D9ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5193C83E-67A2-416C-8B1E-2397BD84A742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05C6BF51-8341-45B1-B3C3-6E352B1B5043}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{05C6BF51-8341-45B1-B3C3-6E352B1B5043}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +285,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -298,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -311,6 +329,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A900E28A-5375-4C30-9B8F-FBEE66CF7C5A}">
   <dimension ref="A1:E6649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="F209" sqref="F209"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="E262" sqref="E262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2355,31 +2376,31 @@
       </c>
       <c r="D208" s="11"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
       <c r="D209" s="11"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
       <c r="D210" s="11"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
       <c r="D211" s="11"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
       <c r="D212" s="11"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -2391,43 +2412,43 @@
       </c>
       <c r="D213" s="11"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
       <c r="D214" s="11"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
       <c r="D215" s="11"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
       <c r="D216" s="11"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
       <c r="D217" s="11"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
       <c r="D218" s="11"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
       <c r="D219" s="11"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -2439,7 +2460,7 @@
       </c>
       <c r="D220" s="11"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -2451,7 +2472,7 @@
       </c>
       <c r="D221" s="11"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -2461,13 +2482,18 @@
       <c r="C222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D222" s="12"/>
+      <c r="E222">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D223" s="12"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -2477,8 +2503,9 @@
       <c r="C224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" s="12"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -2488,18 +2515,21 @@
       <c r="C225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225" s="12"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226" s="12"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227" s="12"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -2509,23 +2539,27 @@
       <c r="C228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228" s="12"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229" s="12"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230" s="12"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231" s="12"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -2535,23 +2569,27 @@
       <c r="C232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232" s="12"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233" s="12"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234" s="12"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235" s="12"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -2561,13 +2599,15 @@
       <c r="C236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236" s="12"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237" s="12"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -2577,8 +2617,9 @@
       <c r="C238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238" s="12"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -2588,13 +2629,15 @@
       <c r="C239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239" s="12"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240" s="12"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -2604,13 +2647,18 @@
       <c r="C241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241" s="12"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242" s="13"/>
+      <c r="E242">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -2620,8 +2668,9 @@
       <c r="C243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243" s="13"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -2631,8 +2680,9 @@
       <c r="C244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244" s="13"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -2642,8 +2692,9 @@
       <c r="C245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245" s="13"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -2653,8 +2704,9 @@
       <c r="C246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246" s="13"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -2664,13 +2716,15 @@
       <c r="C247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247" s="13"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248" s="13"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -2680,8 +2734,9 @@
       <c r="C249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249" s="13"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -2691,13 +2746,15 @@
       <c r="C250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250" s="13"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251" s="13"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -2707,18 +2764,21 @@
       <c r="C252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252" s="13"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253" s="13"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D254" s="13"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -2728,8 +2788,9 @@
       <c r="C255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D255" s="13"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -2739,13 +2800,15 @@
       <c r="C256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D256" s="13"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D257" s="13"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -2755,8 +2818,9 @@
       <c r="C258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D258" s="13"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -2766,83 +2830,102 @@
       <c r="C259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259" s="13"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260" s="13"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261" s="13"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262" s="14"/>
+      <c r="E262">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263" s="14"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264" s="14"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265" s="14"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266" s="14"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267" s="14"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268" s="14"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269" s="14"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270" s="14"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271" s="14"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272" s="14"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273" s="14"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274" s="14"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -2852,8 +2935,9 @@
       <c r="C275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275" s="14"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -2863,28 +2947,33 @@
       <c r="C276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276" s="14"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277" s="14"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278" s="14"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279" s="14"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280" s="14"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -2894,8 +2983,9 @@
       <c r="C281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281" s="14"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -2906,17 +2996,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -2927,17 +3017,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>

--- a/Dissertation/dataset/csv_files/raw text.xlsx
+++ b/Dissertation/dataset/csv_files/raw text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ayushiamin\Dissertation\dataset\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5193C83E-67A2-416C-8B1E-2397BD84A742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4C39FA-FA8B-4A4A-A19F-2A6A99D04F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{05C6BF51-8341-45B1-B3C3-6E352B1B5043}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05C6BF51-8341-45B1-B3C3-6E352B1B5043}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +303,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -316,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -332,6 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A900E28A-5375-4C30-9B8F-FBEE66CF7C5A}">
   <dimension ref="A1:E6649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="E262" sqref="E262"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="E302" sqref="E302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,19 +2920,19 @@
       </c>
       <c r="D272" s="14"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
       <c r="D273" s="14"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
       <c r="D274" s="14"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -2937,7 +2944,7 @@
       </c>
       <c r="D275" s="14"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -2949,31 +2956,31 @@
       </c>
       <c r="D276" s="14"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
       <c r="D277" s="14"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
       <c r="D278" s="14"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
       <c r="D279" s="14"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
       <c r="D280" s="14"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -2985,7 +2992,7 @@
       </c>
       <c r="D281" s="14"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -2995,18 +3002,24 @@
       <c r="C282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D282" s="9"/>
+      <c r="E282">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D283" s="9"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D284" s="9"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -3016,23 +3029,27 @@
       <c r="C285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D285" s="9"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D286" s="9"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D287" s="9"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288" s="9"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -3042,38 +3059,45 @@
       <c r="C289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289" s="9"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290" s="9"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291" s="9"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292" s="9"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293" s="9"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294" s="9"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295" s="9"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -3083,13 +3107,15 @@
       <c r="C296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296" s="9"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297" s="9"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -3099,33 +3125,42 @@
       <c r="C298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298" s="9"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299" s="9"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300" s="9"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301" s="9"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302" s="15"/>
+      <c r="E302">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303" s="15"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -3135,23 +3170,27 @@
       <c r="C304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304" s="15"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305" s="15"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306" s="15"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307" s="15"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -3161,8 +3200,9 @@
       <c r="C308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308" s="15"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -3172,18 +3212,21 @@
       <c r="C309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309" s="15"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310" s="15"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311" s="15"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -3193,13 +3236,15 @@
       <c r="C312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312" s="15"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313" s="15"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -3209,8 +3254,9 @@
       <c r="C314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314" s="15"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -3220,13 +3266,15 @@
       <c r="C315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315" s="15"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316" s="15"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -3236,13 +3284,15 @@
       <c r="C317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317" s="15"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318" s="15"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -3252,38 +3302,41 @@
       <c r="C319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319" s="15"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320" s="15"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321" s="15"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -3294,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -3305,17 +3358,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -3326,27 +3379,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -3357,7 +3410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
